--- a/data/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
+++ b/data/Rivers/MoawhangoatWaiouru_ddcfe67fcf.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -535,7 +535,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -703,7 +703,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -777,7 +777,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -902,7 +902,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -945,7 +945,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -988,7 +988,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1136,7 +1136,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1498,7 +1498,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1560,7 +1560,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1665,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1696,7 +1696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2032,7 +2032,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2118,7 +2118,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2375,7 +2375,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2484,7 +2484,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2581,7 +2581,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2721,7 +2721,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2787,7 +2787,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -2896,7 +2896,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -2993,7 +2993,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3102,7 +3102,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3133,7 +3133,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3363,7 +3363,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3406,7 +3406,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3550,7 +3550,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3589,7 +3589,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3702,7 +3702,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3737,7 +3737,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3768,7 +3768,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3803,7 +3803,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -3877,7 +3877,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -3982,7 +3982,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4060,7 +4060,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4138,7 +4138,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4247,7 +4247,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4531,7 +4531,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4652,7 +4652,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -4983,7 +4983,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5306,7 +5306,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5388,7 +5388,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5458,7 +5458,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5571,7 +5571,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5653,7 +5653,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5684,7 +5684,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -5797,7 +5797,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -5875,7 +5875,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -5949,7 +5949,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -5988,7 +5988,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6101,7 +6101,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6140,7 +6140,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6183,7 +6183,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6214,7 +6214,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6253,7 +6253,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6327,7 +6327,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6366,7 +6366,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>CLAR</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6557,7 +6557,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6592,7 +6592,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6670,7 +6670,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -6709,7 +6709,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -6748,7 +6748,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -6791,7 +6791,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -6826,7 +6826,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -6966,7 +6966,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7032,7 +7032,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7067,7 +7067,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7102,7 +7102,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7141,7 +7141,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7211,7 +7211,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7324,7 +7324,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7406,7 +7406,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7476,7 +7476,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7550,7 +7550,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7589,7 +7589,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7628,7 +7628,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -7702,7 +7702,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -7815,7 +7815,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -7936,7 +7936,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -7967,7 +7967,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8006,7 +8006,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8080,7 +8080,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8119,7 +8119,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8158,7 +8158,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8201,7 +8201,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8232,7 +8232,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8271,7 +8271,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -8731,7 +8731,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -8883,7 +8883,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -8922,7 +8922,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -8996,7 +8996,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9035,7 +9035,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9109,7 +9109,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9187,7 +9187,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9230,7 +9230,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9300,7 +9300,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9413,7 +9413,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9452,7 +9452,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9526,7 +9526,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -9678,7 +9678,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -9760,7 +9760,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -9791,7 +9791,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -9865,7 +9865,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -9943,7 +9943,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -9982,7 +9982,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10095,7 +10095,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10134,7 +10134,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10247,7 +10247,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10360,7 +10360,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10399,7 +10399,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10473,7 +10473,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10551,7 +10551,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -10594,7 +10594,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -10625,7 +10625,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -10664,7 +10664,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -10738,7 +10738,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -10777,7 +10777,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -10816,7 +10816,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -10859,7 +10859,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -10890,7 +10890,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11042,7 +11042,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11124,7 +11124,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11155,7 +11155,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11194,7 +11194,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11307,7 +11307,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11389,7 +11389,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11420,7 +11420,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11455,7 +11455,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -11521,7 +11521,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -11595,7 +11595,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -11634,7 +11634,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -11708,7 +11708,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -11860,7 +11860,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -11930,7 +11930,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12004,7 +12004,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12043,7 +12043,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12082,7 +12082,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12156,7 +12156,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12230,7 +12230,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12308,7 +12308,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12347,7 +12347,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -12499,7 +12499,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -12534,7 +12534,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -12612,7 +12612,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -12651,7 +12651,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -12690,7 +12690,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -12772,7 +12772,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -12807,7 +12807,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -12924,7 +12924,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13006,7 +13006,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13037,7 +13037,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">
@@ -13076,7 +13076,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C338" s="2" t="n">
@@ -13111,7 +13111,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C339" s="2" t="n">
@@ -13189,7 +13189,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C341" s="2" t="n">
@@ -13228,7 +13228,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C342" s="2" t="n">
@@ -13267,7 +13267,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C343" s="2" t="n">
@@ -13310,7 +13310,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C344" s="2" t="n">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C345" s="2" t="n">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C346" s="2" t="n">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C347" s="2" t="n">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C349" s="2" t="n">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C350" s="2" t="n">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C351" s="2" t="n">
@@ -13614,7 +13614,7 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C352" s="2" t="n">
@@ -13645,7 +13645,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C353" s="2" t="n">
@@ -13680,7 +13680,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C354" s="2" t="n">
@@ -13711,7 +13711,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C355" s="2" t="n">
@@ -13746,7 +13746,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C356" s="2" t="n">
@@ -13781,7 +13781,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C357" s="2" t="n">
@@ -13820,7 +13820,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C358" s="2" t="n">
@@ -13851,7 +13851,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C359" s="2" t="n">
@@ -13890,7 +13890,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C360" s="2" t="n">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C361" s="2" t="n">
@@ -14003,7 +14003,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C363" s="2" t="n">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C364" s="2" t="n">
@@ -14081,7 +14081,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C365" s="2" t="n">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C366" s="2" t="n">
@@ -14155,7 +14155,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C367" s="2" t="n">
@@ -14194,7 +14194,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C368" s="2" t="n">
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C369" s="2" t="n">
@@ -14307,7 +14307,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C371" s="2" t="n">
@@ -14346,7 +14346,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C372" s="2" t="n">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C373" s="2" t="n">
@@ -14428,7 +14428,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C374" s="2" t="n">
@@ -14459,7 +14459,7 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C375" s="2" t="n">
@@ -14498,7 +14498,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C376" s="2" t="n">
@@ -14533,7 +14533,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C377" s="2" t="n">
@@ -14611,7 +14611,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C379" s="2" t="n">
@@ -14650,7 +14650,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C380" s="2" t="n">
@@ -14689,7 +14689,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C381" s="2" t="n">
@@ -14732,7 +14732,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C382" s="2" t="n">
@@ -14763,7 +14763,7 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C383" s="2" t="n">
@@ -14798,7 +14798,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C384" s="2" t="n">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C385" s="2" t="n">
@@ -14864,7 +14864,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C386" s="2" t="n">
@@ -14899,7 +14899,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C387" s="2" t="n">
@@ -14938,7 +14938,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C388" s="2" t="n">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C389" s="2" t="n">
@@ -15000,7 +15000,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C390" s="2" t="n">
@@ -15039,7 +15039,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C391" s="2" t="n">
@@ -15074,7 +15074,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C392" s="2" t="n">
@@ -15152,7 +15152,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C394" s="2" t="n">
@@ -15191,7 +15191,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C395" s="2" t="n">
@@ -15230,7 +15230,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C396" s="2" t="n">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C397" s="2" t="n">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C398" s="2" t="n">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C399" s="2" t="n">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C400" s="2" t="n">
@@ -15456,7 +15456,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C402" s="2" t="n">
@@ -15495,7 +15495,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C403" s="2" t="n">
@@ -15534,7 +15534,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C404" s="2" t="n">
@@ -15577,7 +15577,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C405" s="2" t="n">
@@ -15608,7 +15608,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C406" s="2" t="n">
@@ -15647,7 +15647,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C407" s="2" t="n">
@@ -15682,7 +15682,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C408" s="2" t="n">
@@ -15760,7 +15760,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C410" s="2" t="n">
@@ -15799,7 +15799,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C411" s="2" t="n">
@@ -15838,7 +15838,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C412" s="2" t="n">
@@ -15881,7 +15881,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C413" s="2" t="n">
@@ -15912,7 +15912,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C414" s="2" t="n">
@@ -15951,7 +15951,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C415" s="2" t="n">
@@ -15986,7 +15986,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C416" s="2" t="n">
@@ -16064,7 +16064,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C418" s="2" t="n">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C419" s="2" t="n">
@@ -16142,7 +16142,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C420" s="2" t="n">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C421" s="2" t="n">
@@ -16216,7 +16216,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C422" s="2" t="n">
@@ -16255,7 +16255,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C423" s="2" t="n">
@@ -16290,7 +16290,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C424" s="2" t="n">
@@ -16368,7 +16368,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C426" s="2" t="n">
@@ -16407,7 +16407,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C427" s="2" t="n">
@@ -16446,7 +16446,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C428" s="2" t="n">
@@ -16489,7 +16489,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C429" s="2" t="n">
@@ -16520,7 +16520,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C430" s="2" t="n">
@@ -16563,7 +16563,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C431" s="2" t="n">
@@ -16602,7 +16602,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C432" s="2" t="n">
@@ -16680,7 +16680,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C434" s="2" t="n">
@@ -16723,7 +16723,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C435" s="2" t="n">
@@ -16766,7 +16766,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C436" s="2" t="n">
@@ -16809,7 +16809,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C437" s="2" t="n">
@@ -16840,7 +16840,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C438" s="2" t="n">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C439" s="2" t="n">
@@ -16922,7 +16922,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C440" s="2" t="n">
@@ -17000,7 +17000,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C442" s="2" t="n">
@@ -17043,7 +17043,7 @@
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C443" s="2" t="n">
@@ -17086,7 +17086,7 @@
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C444" s="2" t="n">
@@ -17129,7 +17129,7 @@
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C445" s="2" t="n">
@@ -17160,7 +17160,7 @@
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C446" s="2" t="n">
@@ -17203,7 +17203,7 @@
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C447" s="2" t="n">
@@ -17242,7 +17242,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C448" s="2" t="n">
@@ -17320,7 +17320,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C450" s="2" t="n">
@@ -17363,7 +17363,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C451" s="2" t="n">
@@ -17406,7 +17406,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C452" s="2" t="n">
@@ -17449,7 +17449,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C453" s="2" t="n">
@@ -17480,7 +17480,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C454" s="2" t="n">
@@ -17523,7 +17523,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C455" s="2" t="n">
@@ -17562,7 +17562,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C456" s="2" t="n">
@@ -17640,7 +17640,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C458" s="2" t="n">
@@ -17683,7 +17683,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C459" s="2" t="n">
@@ -17726,7 +17726,7 @@
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C460" s="2" t="n">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C461" s="2" t="n">
@@ -17800,7 +17800,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C462" s="2" t="n">
@@ -17843,7 +17843,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C463" s="2" t="n">
@@ -17882,7 +17882,7 @@
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C464" s="2" t="n">
@@ -17960,7 +17960,7 @@
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C466" s="2" t="n">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C467" s="2" t="n">
@@ -18046,7 +18046,7 @@
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C468" s="2" t="n">
@@ -18089,7 +18089,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C469" s="2" t="n">
@@ -18120,7 +18120,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C470" s="2" t="n">
@@ -18155,7 +18155,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C471" s="2" t="n">
@@ -18194,7 +18194,7 @@
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C472" s="2" t="n">
@@ -18233,7 +18233,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C473" s="2" t="n">
@@ -18272,7 +18272,7 @@
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C474" s="2" t="n">
@@ -18303,7 +18303,7 @@
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C475" s="2" t="n">
@@ -18346,7 +18346,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C476" s="2" t="n">
@@ -18385,7 +18385,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C477" s="2" t="n">
@@ -18463,7 +18463,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C479" s="2" t="n">
@@ -18506,7 +18506,7 @@
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C480" s="2" t="n">
@@ -18549,7 +18549,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C481" s="2" t="n">
@@ -18592,7 +18592,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C482" s="2" t="n">
@@ -18623,7 +18623,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C483" s="2" t="n">
@@ -18666,7 +18666,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C484" s="2" t="n">
@@ -18705,7 +18705,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C485" s="2" t="n">
@@ -18748,7 +18748,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C486" s="2" t="n">
@@ -18826,7 +18826,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C488" s="2" t="n">
@@ -18869,7 +18869,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C489" s="2" t="n">
@@ -18912,7 +18912,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C490" s="2" t="n">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>SSC</t>
+          <t>Suspended Sediment Concentration</t>
         </is>
       </c>
       <c r="C491" s="2" t="n">
@@ -18994,7 +18994,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C492" s="2" t="n">
@@ -19033,7 +19033,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C493" s="2" t="n">
@@ -19072,7 +19072,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>TURB</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C494" s="2" t="n">
@@ -19115,7 +19115,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C495" s="2" t="n">
@@ -19146,7 +19146,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C496" s="2" t="n">
@@ -19189,7 +19189,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C497" s="2" t="n">
@@ -19228,7 +19228,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C498" s="2" t="n">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C500" s="2" t="n">
@@ -19349,7 +19349,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C501" s="2" t="n">
@@ -19392,7 +19392,7 @@
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C502" s="2" t="n">
@@ -19435,7 +19435,7 @@
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C503" s="2" t="n">
@@ -19466,7 +19466,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C504" s="2" t="n">
@@ -19509,7 +19509,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C505" s="2" t="n">
@@ -19548,7 +19548,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C506" s="2" t="n">
@@ -19626,7 +19626,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C508" s="2" t="n">
@@ -19669,7 +19669,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C509" s="2" t="n">
@@ -19712,7 +19712,7 @@
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C510" s="2" t="n">
@@ -19755,7 +19755,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C511" s="2" t="n">
@@ -19786,7 +19786,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C512" s="2" t="n">
@@ -19829,7 +19829,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C513" s="2" t="n">
@@ -19868,7 +19868,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C514" s="2" t="n">
@@ -19946,7 +19946,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C516" s="2" t="n">
@@ -19989,7 +19989,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C517" s="2" t="n">
@@ -20032,7 +20032,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C518" s="2" t="n">
@@ -20075,7 +20075,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C519" s="2" t="n">
@@ -20118,7 +20118,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C520" s="2" t="n">
@@ -20157,7 +20157,7 @@
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C521" s="2" t="n">
@@ -20235,7 +20235,7 @@
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C523" s="2" t="n">
@@ -20278,7 +20278,7 @@
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C524" s="2" t="n">
@@ -20321,7 +20321,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C525" s="2" t="n">
@@ -20364,7 +20364,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C526" s="2" t="n">
@@ -20395,7 +20395,7 @@
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C527" s="2" t="n">
@@ -20438,7 +20438,7 @@
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C528" s="2" t="n">
@@ -20477,7 +20477,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C529" s="2" t="n">
@@ -20555,7 +20555,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C531" s="2" t="n">
@@ -20598,7 +20598,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C532" s="2" t="n">
@@ -20641,7 +20641,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C533" s="2" t="n">
@@ -20684,7 +20684,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C534" s="2" t="n">
@@ -20715,7 +20715,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C535" s="2" t="n">
@@ -20758,7 +20758,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C536" s="2" t="n">
@@ -20797,7 +20797,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C537" s="2" t="n">
@@ -20875,7 +20875,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C539" s="2" t="n">
@@ -20918,7 +20918,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C540" s="2" t="n">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="B541" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C541" s="2" t="n">
@@ -21004,7 +21004,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C542" s="2" t="n">
@@ -21035,7 +21035,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C543" s="2" t="n">
@@ -21078,7 +21078,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C544" s="2" t="n">
@@ -21117,7 +21117,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C545" s="2" t="n">
@@ -21195,7 +21195,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C547" s="2" t="n">
@@ -21238,7 +21238,7 @@
       </c>
       <c r="B548" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C548" s="2" t="n">
@@ -21281,7 +21281,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C549" s="2" t="n">
@@ -21324,7 +21324,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C550" s="2" t="n">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C551" s="2" t="n">
@@ -21398,7 +21398,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C552" s="2" t="n">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C553" s="2" t="n">
@@ -21515,7 +21515,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C555" s="2" t="n">
@@ -21558,7 +21558,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C556" s="2" t="n">
@@ -21601,7 +21601,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C557" s="2" t="n">
@@ -21644,7 +21644,7 @@
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C558" s="2" t="n">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C559" s="2" t="n">
@@ -21718,7 +21718,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C560" s="2" t="n">
@@ -21757,7 +21757,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C561" s="2" t="n">
@@ -21835,7 +21835,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C563" s="2" t="n">
@@ -21878,7 +21878,7 @@
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C564" s="2" t="n">
@@ -21921,7 +21921,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C565" s="2" t="n">
@@ -21964,7 +21964,7 @@
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C566" s="2" t="n">
@@ -21995,7 +21995,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C567" s="2" t="n">
@@ -22038,7 +22038,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C568" s="2" t="n">
@@ -22116,7 +22116,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C570" s="2" t="n">
@@ -22159,7 +22159,7 @@
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C571" s="2" t="n">
@@ -22202,7 +22202,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C572" s="2" t="n">
@@ -22245,7 +22245,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C573" s="2" t="n">
@@ -22276,7 +22276,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C574" s="2" t="n">
@@ -22319,7 +22319,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C575" s="2" t="n">
@@ -22358,7 +22358,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C576" s="2" t="n">
@@ -22436,7 +22436,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C578" s="2" t="n">
@@ -22479,7 +22479,7 @@
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C579" s="2" t="n">
@@ -22522,7 +22522,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C580" s="2" t="n">
@@ -22565,7 +22565,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C581" s="2" t="n">
@@ -22596,7 +22596,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C582" s="2" t="n">
@@ -22639,7 +22639,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C583" s="2" t="n">
@@ -22678,7 +22678,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C584" s="2" t="n">
@@ -22756,7 +22756,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C586" s="2" t="n">
@@ -22799,7 +22799,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C587" s="2" t="n">
@@ -22842,7 +22842,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C588" s="2" t="n">
@@ -22885,7 +22885,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C589" s="2" t="n">
@@ -22916,7 +22916,7 @@
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C590" s="2" t="n">
@@ -22947,7 +22947,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C591" s="2" t="n">
@@ -22990,7 +22990,7 @@
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C592" s="2" t="n">
@@ -23029,7 +23029,7 @@
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C593" s="2" t="n">
@@ -23107,7 +23107,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C595" s="2" t="n">
@@ -23150,7 +23150,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C596" s="2" t="n">
@@ -23193,7 +23193,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C597" s="2" t="n">
@@ -23236,7 +23236,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C598" s="2" t="n">
@@ -23279,7 +23279,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C599" s="2" t="n">
@@ -23318,7 +23318,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C600" s="2" t="n">
@@ -23396,7 +23396,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C602" s="2" t="n">
@@ -23439,7 +23439,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C603" s="2" t="n">
@@ -23482,7 +23482,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C604" s="2" t="n">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C605" s="2" t="n">
@@ -23556,7 +23556,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C606" s="2" t="n">
@@ -23599,7 +23599,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C607" s="2" t="n">
@@ -23638,7 +23638,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C608" s="2" t="n">
@@ -23716,7 +23716,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C610" s="2" t="n">
@@ -23759,7 +23759,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C611" s="2" t="n">
@@ -23802,7 +23802,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C612" s="2" t="n">
@@ -23845,7 +23845,7 @@
       </c>
       <c r="B613" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C613" s="2" t="n">
@@ -23876,7 +23876,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C614" s="2" t="n">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C615" s="2" t="n">
@@ -23958,7 +23958,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C616" s="2" t="n">
@@ -24036,7 +24036,7 @@
       </c>
       <c r="B618" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C618" s="2" t="n">
@@ -24079,7 +24079,7 @@
       </c>
       <c r="B619" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C619" s="2" t="n">
@@ -24122,7 +24122,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C620" s="2" t="n">
@@ -24165,7 +24165,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C621" s="2" t="n">
@@ -24204,7 +24204,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C622" s="2" t="n">
@@ -24243,7 +24243,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C623" s="2" t="n">
@@ -24274,7 +24274,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C624" s="2" t="n">
@@ -24313,7 +24313,7 @@
       </c>
       <c r="B625" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C625" s="2" t="n">
@@ -24348,7 +24348,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C626" s="2" t="n">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C627" s="2" t="n">
@@ -24422,7 +24422,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C628" s="2" t="n">
@@ -24461,7 +24461,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C629" s="2" t="n">
@@ -24500,7 +24500,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C630" s="2" t="n">
@@ -24535,7 +24535,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C631" s="2" t="n">
@@ -24570,7 +24570,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C632" s="2" t="n">
@@ -24601,7 +24601,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C633" s="2" t="n">
@@ -24640,7 +24640,7 @@
       </c>
       <c r="B634" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C634" s="2" t="n">
@@ -24718,7 +24718,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C636" s="2" t="n">
@@ -24761,7 +24761,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C637" s="2" t="n">
@@ -24804,7 +24804,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C638" s="2" t="n">
@@ -24847,7 +24847,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C639" s="2" t="n">
@@ -24886,7 +24886,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C640" s="2" t="n">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C641" s="2" t="n">
@@ -24956,7 +24956,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C642" s="2" t="n">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C643" s="2" t="n">
@@ -25073,7 +25073,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C645" s="2" t="n">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="B646" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C646" s="2" t="n">
@@ -25159,7 +25159,7 @@
       </c>
       <c r="B647" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C647" s="2" t="n">
@@ -25202,7 +25202,7 @@
       </c>
       <c r="B648" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C648" s="2" t="n">
@@ -25241,7 +25241,7 @@
       </c>
       <c r="B649" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C649" s="2" t="n">
@@ -25280,7 +25280,7 @@
       </c>
       <c r="B650" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C650" s="2" t="n">
@@ -25311,7 +25311,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C651" s="2" t="n">
@@ -25389,7 +25389,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C653" s="2" t="n">
@@ -25432,7 +25432,7 @@
       </c>
       <c r="B654" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C654" s="2" t="n">
@@ -25475,7 +25475,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C655" s="2" t="n">
@@ -25518,7 +25518,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C656" s="2" t="n">
@@ -25557,7 +25557,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C657" s="2" t="n">
@@ -25596,7 +25596,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C658" s="2" t="n">
@@ -25627,7 +25627,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C659" s="2" t="n">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="B660" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C660" s="2" t="n">
@@ -25709,7 +25709,7 @@
       </c>
       <c r="B661" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C661" s="2" t="n">
@@ -25787,7 +25787,7 @@
       </c>
       <c r="B663" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C663" s="2" t="n">
@@ -25830,7 +25830,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C664" s="2" t="n">
@@ -25873,7 +25873,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C665" s="2" t="n">
@@ -25916,7 +25916,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C666" s="2" t="n">
@@ -25955,7 +25955,7 @@
       </c>
       <c r="B667" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C667" s="2" t="n">
@@ -25994,7 +25994,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C668" s="2" t="n">
@@ -26025,7 +26025,7 @@
       </c>
       <c r="B669" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C669" s="2" t="n">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C670" s="2" t="n">
@@ -26107,7 +26107,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C671" s="2" t="n">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C673" s="2" t="n">
@@ -26228,7 +26228,7 @@
       </c>
       <c r="B674" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C674" s="2" t="n">
@@ -26271,7 +26271,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C675" s="2" t="n">
@@ -26314,7 +26314,7 @@
       </c>
       <c r="B676" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C676" s="2" t="n">
@@ -26353,7 +26353,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C677" s="2" t="n">
@@ -26392,7 +26392,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C678" s="2" t="n">
@@ -26423,7 +26423,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C679" s="2" t="n">
@@ -26466,7 +26466,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C680" s="2" t="n">
@@ -26505,7 +26505,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C681" s="2" t="n">
@@ -26583,7 +26583,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C683" s="2" t="n">
@@ -26626,7 +26626,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C684" s="2" t="n">
@@ -26669,7 +26669,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C685" s="2" t="n">
@@ -26712,7 +26712,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C686" s="2" t="n">
@@ -26751,7 +26751,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C687" s="2" t="n">
@@ -26790,7 +26790,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C688" s="2" t="n">
@@ -26821,7 +26821,7 @@
       </c>
       <c r="B689" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C689" s="2" t="n">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C690" s="2" t="n">
@@ -26895,7 +26895,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C691" s="2" t="n">
@@ -26934,7 +26934,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C692" s="2" t="n">
@@ -27012,7 +27012,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C694" s="2" t="n">
@@ -27055,7 +27055,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C695" s="2" t="n">
@@ -27098,7 +27098,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C696" s="2" t="n">
@@ -27141,7 +27141,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C697" s="2" t="n">
@@ -27180,7 +27180,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C698" s="2" t="n">
@@ -27219,7 +27219,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C699" s="2" t="n">
@@ -27250,7 +27250,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C700" s="2" t="n">
@@ -27293,7 +27293,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C701" s="2" t="n">
@@ -27332,7 +27332,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C702" s="2" t="n">
@@ -27410,7 +27410,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C704" s="2" t="n">
@@ -27453,7 +27453,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C705" s="2" t="n">
@@ -27496,7 +27496,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C706" s="2" t="n">
@@ -27539,7 +27539,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C707" s="2" t="n">
@@ -27578,7 +27578,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C708" s="2" t="n">
@@ -27617,7 +27617,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C709" s="2" t="n">
@@ -27648,7 +27648,7 @@
       </c>
       <c r="B710" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C710" s="2" t="n">
@@ -27691,7 +27691,7 @@
       </c>
       <c r="B711" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C711" s="2" t="n">
@@ -27730,7 +27730,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C712" s="2" t="n">
@@ -27808,7 +27808,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C714" s="2" t="n">
@@ -27851,7 +27851,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C715" s="2" t="n">
@@ -27894,7 +27894,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C716" s="2" t="n">
@@ -27937,7 +27937,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C717" s="2" t="n">
@@ -27976,7 +27976,7 @@
       </c>
       <c r="B718" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C718" s="2" t="n">
@@ -28015,7 +28015,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C719" s="2" t="n">
@@ -28046,7 +28046,7 @@
       </c>
       <c r="B720" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C720" s="2" t="n">
@@ -28089,7 +28089,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C721" s="2" t="n">
@@ -28128,7 +28128,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C722" s="2" t="n">
@@ -28206,7 +28206,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C724" s="2" t="n">
@@ -28249,7 +28249,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C725" s="2" t="n">
@@ -28292,7 +28292,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C726" s="2" t="n">
@@ -28335,7 +28335,7 @@
       </c>
       <c r="B727" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C727" s="2" t="n">
@@ -28374,7 +28374,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C728" s="2" t="n">
@@ -28413,7 +28413,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C729" s="2" t="n">
@@ -28444,7 +28444,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C730" s="2" t="n">
@@ -28487,7 +28487,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C731" s="2" t="n">
@@ -28526,7 +28526,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C732" s="2" t="n">
@@ -28604,7 +28604,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C734" s="2" t="n">
@@ -28647,7 +28647,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C735" s="2" t="n">
@@ -28690,7 +28690,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C736" s="2" t="n">
@@ -28733,7 +28733,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C737" s="2" t="n">
@@ -28772,7 +28772,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C738" s="2" t="n">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C739" s="2" t="n">
@@ -28854,7 +28854,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C740" s="2" t="n">
@@ -28893,7 +28893,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C741" s="2" t="n">
@@ -28971,7 +28971,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C743" s="2" t="n">
@@ -29014,7 +29014,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C744" s="2" t="n">
@@ -29057,7 +29057,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C745" s="2" t="n">
@@ -29100,7 +29100,7 @@
       </c>
       <c r="B746" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C746" s="2" t="n">
@@ -29139,7 +29139,7 @@
       </c>
       <c r="B747" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C747" s="2" t="n">
@@ -29178,7 +29178,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C748" s="2" t="n">
@@ -29209,7 +29209,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C749" s="2" t="n">
@@ -29252,7 +29252,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C750" s="2" t="n">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C751" s="2" t="n">
@@ -29369,7 +29369,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C753" s="2" t="n">
@@ -29412,7 +29412,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C754" s="2" t="n">
@@ -29455,7 +29455,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C755" s="2" t="n">
@@ -29498,7 +29498,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C756" s="2" t="n">
@@ -29537,7 +29537,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C757" s="2" t="n">
@@ -29576,7 +29576,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C758" s="2" t="n">
@@ -29607,7 +29607,7 @@
       </c>
       <c r="B759" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C759" s="2" t="n">
@@ -29650,7 +29650,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C760" s="2" t="n">
@@ -29689,7 +29689,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C761" s="2" t="n">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C763" s="2" t="n">
@@ -29810,7 +29810,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C764" s="2" t="n">
@@ -29853,7 +29853,7 @@
       </c>
       <c r="B765" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C765" s="2" t="n">
@@ -29896,7 +29896,7 @@
       </c>
       <c r="B766" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C766" s="2" t="n">
@@ -29935,7 +29935,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C767" s="2" t="n">
@@ -29974,7 +29974,7 @@
       </c>
       <c r="B768" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C768" s="2" t="n">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C769" s="2" t="n">
@@ -30048,7 +30048,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C770" s="2" t="n">
@@ -30087,7 +30087,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C771" s="2" t="n">
@@ -30165,7 +30165,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C773" s="2" t="n">
@@ -30208,7 +30208,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C774" s="2" t="n">
@@ -30251,7 +30251,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C775" s="2" t="n">
@@ -30294,7 +30294,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C776" s="2" t="n">
@@ -30333,7 +30333,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C777" s="2" t="n">
@@ -30372,7 +30372,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C778" s="2" t="n">
@@ -30403,7 +30403,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C779" s="2" t="n">
@@ -30434,7 +30434,7 @@
       </c>
       <c r="B780" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C780" s="2" t="n">
@@ -30465,7 +30465,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C781" s="2" t="n">
@@ -30496,7 +30496,7 @@
       </c>
       <c r="B782" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C782" s="2" t="n">
@@ -30527,7 +30527,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C783" s="2" t="n">
@@ -30558,7 +30558,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C784" s="2" t="n">
@@ -30601,7 +30601,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C785" s="2" t="n">
@@ -30640,7 +30640,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C786" s="2" t="n">
@@ -30718,7 +30718,7 @@
       </c>
       <c r="B788" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C788" s="2" t="n">
@@ -30761,7 +30761,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C789" s="2" t="n">
@@ -30804,7 +30804,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C790" s="2" t="n">
@@ -30847,7 +30847,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C791" s="2" t="n">
@@ -30886,7 +30886,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C792" s="2" t="n">
@@ -30925,7 +30925,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C793" s="2" t="n">
@@ -30956,7 +30956,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C794" s="2" t="n">
@@ -30999,7 +30999,7 @@
       </c>
       <c r="B795" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C795" s="2" t="n">
@@ -31038,7 +31038,7 @@
       </c>
       <c r="B796" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C796" s="2" t="n">
@@ -31116,7 +31116,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C798" s="2" t="n">
@@ -31159,7 +31159,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C799" s="2" t="n">
@@ -31202,7 +31202,7 @@
       </c>
       <c r="B800" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C800" s="2" t="n">
@@ -31245,7 +31245,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C801" s="2" t="n">
@@ -31284,7 +31284,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C802" s="2" t="n">
@@ -31323,7 +31323,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C803" s="2" t="n">
@@ -31354,7 +31354,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C804" s="2" t="n">
@@ -31397,7 +31397,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C805" s="2" t="n">
@@ -31436,7 +31436,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C806" s="2" t="n">
@@ -31514,7 +31514,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C808" s="2" t="n">
@@ -31557,7 +31557,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C809" s="2" t="n">
@@ -31600,7 +31600,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C810" s="2" t="n">
@@ -31643,7 +31643,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C811" s="2" t="n">
@@ -31682,7 +31682,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C812" s="2" t="n">
@@ -31721,7 +31721,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C813" s="2" t="n">
@@ -31752,7 +31752,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C814" s="2" t="n">
@@ -31795,7 +31795,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C815" s="2" t="n">
@@ -31834,7 +31834,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C816" s="2" t="n">
@@ -31912,7 +31912,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C818" s="2" t="n">
@@ -31955,7 +31955,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C819" s="2" t="n">
@@ -31998,7 +31998,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C820" s="2" t="n">
@@ -32041,7 +32041,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C821" s="2" t="n">
@@ -32080,7 +32080,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C822" s="2" t="n">
@@ -32119,7 +32119,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C823" s="2" t="n">
@@ -32162,7 +32162,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C824" s="2" t="n">
@@ -32201,7 +32201,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C825" s="2" t="n">
@@ -32279,7 +32279,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C827" s="2" t="n">
@@ -32322,7 +32322,7 @@
       </c>
       <c r="B828" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C828" s="2" t="n">
@@ -32365,7 +32365,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C829" s="2" t="n">
@@ -32408,7 +32408,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C830" s="2" t="n">
@@ -32447,7 +32447,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C831" s="2" t="n">
@@ -32486,7 +32486,7 @@
       </c>
       <c r="B832" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C832" s="2" t="n">
@@ -32517,7 +32517,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C833" s="2" t="n">
@@ -32560,7 +32560,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C834" s="2" t="n">
@@ -32599,7 +32599,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C835" s="2" t="n">
@@ -32677,7 +32677,7 @@
       </c>
       <c r="B837" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C837" s="2" t="n">
@@ -32720,7 +32720,7 @@
       </c>
       <c r="B838" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C838" s="2" t="n">
@@ -32763,7 +32763,7 @@
       </c>
       <c r="B839" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C839" s="2" t="n">
@@ -32806,7 +32806,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C840" s="2" t="n">
@@ -32845,7 +32845,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C841" s="2" t="n">
@@ -32884,7 +32884,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C842" s="2" t="n">
@@ -32915,7 +32915,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C843" s="2" t="n">
@@ -32958,7 +32958,7 @@
       </c>
       <c r="B844" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C844" s="2" t="n">
@@ -32997,7 +32997,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C845" s="2" t="n">
@@ -33075,7 +33075,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C847" s="2" t="n">
@@ -33118,7 +33118,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C848" s="2" t="n">
@@ -33161,7 +33161,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C849" s="2" t="n">
@@ -33204,7 +33204,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C850" s="2" t="n">
@@ -33243,7 +33243,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C851" s="2" t="n">
@@ -33282,7 +33282,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C852" s="2" t="n">
@@ -33313,7 +33313,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C853" s="2" t="n">
@@ -33356,7 +33356,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C854" s="2" t="n">
@@ -33395,7 +33395,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C855" s="2" t="n">
@@ -33473,7 +33473,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C857" s="2" t="n">
@@ -33516,7 +33516,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C858" s="2" t="n">
@@ -33559,7 +33559,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C859" s="2" t="n">
@@ -33602,7 +33602,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C860" s="2" t="n">
@@ -33641,7 +33641,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C861" s="2" t="n">
@@ -33680,7 +33680,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C862" s="2" t="n">
@@ -33711,7 +33711,7 @@
       </c>
       <c r="B863" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C863" s="2" t="n">
@@ -33742,7 +33742,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C864" s="2" t="n">
@@ -33785,7 +33785,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C865" s="2" t="n">
@@ -33824,7 +33824,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C866" s="2" t="n">
@@ -33902,7 +33902,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C868" s="2" t="n">
@@ -33945,7 +33945,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C869" s="2" t="n">
@@ -33988,7 +33988,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C870" s="2" t="n">
@@ -34031,7 +34031,7 @@
       </c>
       <c r="B871" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C871" s="2" t="n">
@@ -34070,7 +34070,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C872" s="2" t="n">
@@ -34109,7 +34109,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C873" s="2" t="n">
@@ -34140,7 +34140,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C874" s="2" t="n">
@@ -34171,7 +34171,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C875" s="2" t="n">
@@ -34214,7 +34214,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C876" s="2" t="n">
@@ -34253,7 +34253,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C877" s="2" t="n">
@@ -34331,7 +34331,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C879" s="2" t="n">
@@ -34374,7 +34374,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C880" s="2" t="n">
@@ -34417,7 +34417,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C881" s="2" t="n">
@@ -34460,7 +34460,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C882" s="2" t="n">
@@ -34499,7 +34499,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C883" s="2" t="n">
@@ -34538,7 +34538,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C884" s="2" t="n">
@@ -34569,7 +34569,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C885" s="2" t="n">
@@ -34612,7 +34612,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C886" s="2" t="n">
@@ -34651,7 +34651,7 @@
       </c>
       <c r="B887" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C887" s="2" t="n">
@@ -34729,7 +34729,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C889" s="2" t="n">
@@ -34772,7 +34772,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C890" s="2" t="n">
@@ -34815,7 +34815,7 @@
       </c>
       <c r="B891" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C891" s="2" t="n">
@@ -34858,7 +34858,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C892" s="2" t="n">
@@ -34897,7 +34897,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C893" s="2" t="n">
@@ -34936,7 +34936,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>Chl_a</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C894" s="2" t="n">
@@ -34967,7 +34967,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>NH4N</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C895" s="2" t="n">
@@ -35010,7 +35010,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>DRP</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C896" s="2" t="n">
@@ -35049,7 +35049,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>DO_Conc</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C897" s="2" t="n">
@@ -35127,7 +35127,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>NO3</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C899" s="2" t="n">
@@ -35170,7 +35170,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>NO2</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C900" s="2" t="n">
@@ -35213,7 +35213,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>SIN</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C901" s="2" t="n">
@@ -35256,7 +35256,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>TN</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C902" s="2" t="n">
@@ -35295,7 +35295,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>TP</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C903" s="2" t="n">
